--- a/females_on_females_and_males_means.xlsx
+++ b/females_on_females_and_males_means.xlsx
@@ -1,37 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shlomin\PycharmProjects\lda_test1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C229A71-EF01-48A2-A297-84419D211609}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E9E544-B67B-4DD9-9DBF-0F4DA8F59E2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="females_on_females_and_males_me" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>Females</t>
   </si>
   <si>
     <t>Males</t>
   </si>
+  <si>
+    <t>Determined</t>
+  </si>
+  <si>
+    <t>Collaborator</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Optimistic</t>
+  </si>
+  <si>
+    <t>Conqueror</t>
+  </si>
+  <si>
+    <t>Peacful zionist</t>
+  </si>
+  <si>
+    <t>Nurturing</t>
+  </si>
+  <si>
+    <t>Compassionate</t>
+  </si>
+  <si>
+    <t>Educator</t>
+  </si>
+  <si>
+    <t>Army Commander</t>
+  </si>
+  <si>
+    <t>Visionary</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Achiever</t>
+  </si>
+  <si>
+    <t>Fiction Character</t>
+  </si>
+  <si>
+    <t>Problem Sover</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,8 +577,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -584,6 +653,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>By trait avarage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -624,7 +718,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>females_on_females_and_males_me!$A$1</c:f>
+              <c:f>females_on_females_and_males_me!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -657,9 +751,62 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>females_on_females_and_males_me!$B$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Determined</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Collaborator</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Family</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Optimistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Conqueror</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Peacful zionist</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nurturing</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Compassionate</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Educator</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Army Commander</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Visionary</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Achiever</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Fiction Character</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Problem Sover</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>females_on_females_and_males_me!$B$1:$P$1</c:f>
+              <c:f>females_on_females_and_males_me!$B$2:$P$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -714,7 +861,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1A60-4F0F-B215-DF3822A5DFAD}"/>
+              <c16:uniqueId val="{00000000-9D6A-4CFC-A937-8CAF65303294}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -723,7 +870,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>females_on_females_and_males_me!$A$2</c:f>
+              <c:f>females_on_females_and_males_me!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -756,9 +903,62 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>females_on_females_and_males_me!$B$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Determined</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Collaborator</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Family</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Optimistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Conqueror</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Peacful zionist</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nurturing</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Compassionate</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Educator</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Army Commander</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Visionary</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Achiever</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Fiction Character</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Problem Sover</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>females_on_females_and_males_me!$B$2:$P$2</c:f>
+              <c:f>females_on_females_and_males_me!$B$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -813,7 +1013,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1A60-4F0F-B215-DF3822A5DFAD}"/>
+              <c16:uniqueId val="{00000001-9D6A-4CFC-A937-8CAF65303294}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -827,16 +1027,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="419913224"/>
-        <c:axId val="618370152"/>
+        <c:axId val="586805112"/>
+        <c:axId val="586801504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="419913224"/>
+        <c:axId val="586805112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -873,7 +1074,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618370152"/>
+        <c:crossAx val="586801504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -881,7 +1082,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="618370152"/>
+        <c:axId val="586801504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,7 +1133,716 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419913224"/>
+        <c:crossAx val="586805112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>females_on_females_and_males_me!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Females</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>females_on_females_and_males_me!$B$30:$P$30</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Determined</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Collaborator</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Family</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Optimistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Conqueror</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Peacful zionist</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nurturing</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Compassionate</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Educator</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Army Commander</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Visionary</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Achiever</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Fiction Character</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Problem Sover</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>females_on_females_and_males_me!$B$31:$P$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6.2692825688193801E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0963180058962794E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1454300561718396E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.121450475703512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6304499188365499E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0068209304756103E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.133325509941675</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9965395034625699E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.4231619293870902E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8440989814588197E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9974799016651201E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.8980858440467798E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.4111511201161305E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.7562578563794805E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0473248187657499E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0B1-45DF-9308-DB04FD13DEC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>females_on_females_and_males_me!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Males</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>females_on_females_and_males_me!$B$30:$P$30</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Determined</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Collaborator</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Family</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Optimistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Conqueror</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Peacful zionist</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nurturing</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Compassionate</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Educator</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Army Commander</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Visionary</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Achiever</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Fiction Character</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Problem Sover</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>females_on_females_and_males_me!$B$32:$P$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7.0047297284535695E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4907984288641902E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6654763423718897E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5369338447753504E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8179468815995101E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.104746517493358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6778200454222595E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0423459178196803E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.97098778415812E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7035855284487199E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10163960048529901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9531342042786104E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.1485216705903803E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.3328796765352802E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0162281488167398E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E0B1-45DF-9308-DB04FD13DEC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>females_on_females_and_males_me!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>females_on_females_and_males_me!$B$30:$P$30</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Determined</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Collaborator</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Family</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Optimistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Conqueror</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Peacful zionist</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nurturing</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Compassionate</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Educator</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Army Commander</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Visionary</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Achiever</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Fiction Character</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Problem Sover</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>females_on_females_and_males_me!$B$33:$P$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.10514837229482001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17338637647174401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.44575402702427E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.114182009861359</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.27013331409609E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6985423562518401E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18040776745373999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3007211945141203E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.51857983768752E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7550066169147401E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.72305327282489E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6189726556197397E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7527161588057198E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9017027734953099E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.7023651845993205E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E0B1-45DF-9308-DB04FD13DEC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="593411072"/>
+        <c:axId val="593408448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="593411072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593408448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="593408448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593411072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1059,6 +1969,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1562,27 +2512,530 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6876131B-6D63-45D8-A334-B82322C8B24D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D327E3-9909-4071-8352-5520DE36B3F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1595,6 +3048,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7887C9B8-9091-4FC8-9B0F-E8422ED472BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1899,117 +3388,475 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P2"/>
+      <selection sqref="A1:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>6.2692825688193801E-2</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>7.0963180058962794E-2</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>9.1454300561718396E-2</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>0.121450475703512</v>
       </c>
-      <c r="F1">
+      <c r="F2">
         <v>2.6304499188365499E-2</v>
       </c>
-      <c r="G1">
+      <c r="G2">
         <v>4.0068209304756103E-2</v>
       </c>
-      <c r="H1">
+      <c r="H2">
         <v>0.133325509941675</v>
       </c>
-      <c r="I1">
+      <c r="I2">
         <v>3.9965395034625699E-2</v>
       </c>
-      <c r="J1">
+      <c r="J2">
         <v>5.4231619293870902E-2</v>
       </c>
-      <c r="K1">
+      <c r="K2">
         <v>3.8440989814588197E-2</v>
       </c>
-      <c r="L1">
+      <c r="L2">
         <v>2.9974799016651201E-2</v>
       </c>
-      <c r="M1">
+      <c r="M2">
         <v>5.8980858440467798E-2</v>
       </c>
-      <c r="N1">
+      <c r="N2">
         <v>9.4111511201161305E-2</v>
       </c>
-      <c r="O1">
+      <c r="O2">
         <v>8.7562578563794805E-2</v>
       </c>
-      <c r="P1">
+      <c r="P2">
         <v>5.0473248187657499E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>7.0047297284535695E-2</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>5.4907984288641902E-2</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>5.6654763423718897E-2</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>8.5369338447753504E-2</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>4.8179468815995101E-2</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>0.104746517493358</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>7.6778200454222595E-2</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>6.0423459178196803E-2</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>4.97098778415812E-2</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>4.7035855284487199E-2</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>0.10163960048529901</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>6.9531342042786104E-2</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>6.1485216705903803E-2</v>
       </c>
-      <c r="O2">
+      <c r="O3">
         <v>6.3328796765352802E-2</v>
       </c>
-      <c r="P2">
+      <c r="P3">
         <v>5.0162281488167398E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>30.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>116.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>54.07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>112.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>359.39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>57.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>452.09</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C18" s="1">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1">
+        <v>14.31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>88.58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>50.36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>6.2692825688193801E-2</v>
+      </c>
+      <c r="C31">
+        <v>7.0963180058962794E-2</v>
+      </c>
+      <c r="D31">
+        <v>9.1454300561718396E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.121450475703512</v>
+      </c>
+      <c r="F31">
+        <v>2.6304499188365499E-2</v>
+      </c>
+      <c r="G31">
+        <v>4.0068209304756103E-2</v>
+      </c>
+      <c r="H31">
+        <v>0.133325509941675</v>
+      </c>
+      <c r="I31">
+        <v>3.9965395034625699E-2</v>
+      </c>
+      <c r="J31">
+        <v>5.4231619293870902E-2</v>
+      </c>
+      <c r="K31">
+        <v>3.8440989814588197E-2</v>
+      </c>
+      <c r="L31">
+        <v>2.9974799016651201E-2</v>
+      </c>
+      <c r="M31">
+        <v>5.8980858440467798E-2</v>
+      </c>
+      <c r="N31">
+        <v>9.4111511201161305E-2</v>
+      </c>
+      <c r="O31">
+        <v>8.7562578563794805E-2</v>
+      </c>
+      <c r="P31">
+        <v>5.0473248187657499E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>7.0047297284535695E-2</v>
+      </c>
+      <c r="C32">
+        <v>5.4907984288641902E-2</v>
+      </c>
+      <c r="D32">
+        <v>5.6654763423718897E-2</v>
+      </c>
+      <c r="E32">
+        <v>8.5369338447753504E-2</v>
+      </c>
+      <c r="F32">
+        <v>4.8179468815995101E-2</v>
+      </c>
+      <c r="G32">
+        <v>0.104746517493358</v>
+      </c>
+      <c r="H32">
+        <v>7.6778200454222595E-2</v>
+      </c>
+      <c r="I32">
+        <v>6.0423459178196803E-2</v>
+      </c>
+      <c r="J32">
+        <v>4.97098778415812E-2</v>
+      </c>
+      <c r="K32">
+        <v>4.7035855284487199E-2</v>
+      </c>
+      <c r="L32">
+        <v>0.10163960048529901</v>
+      </c>
+      <c r="M32">
+        <v>6.9531342042786104E-2</v>
+      </c>
+      <c r="N32">
+        <v>6.1485216705903803E-2</v>
+      </c>
+      <c r="O32">
+        <v>6.3328796765352802E-2</v>
+      </c>
+      <c r="P32">
+        <v>5.0162281488167398E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>0.10514837229482001</v>
+      </c>
+      <c r="C33">
+        <v>0.17338637647174401</v>
+      </c>
+      <c r="D33">
+        <v>2.44575402702427E-2</v>
+      </c>
+      <c r="E33">
+        <v>0.114182009861359</v>
+      </c>
+      <c r="F33">
+        <v>2.27013331409609E-2</v>
+      </c>
+      <c r="G33">
+        <v>2.6985423562518401E-2</v>
+      </c>
+      <c r="H33">
+        <v>0.18040776745373999</v>
+      </c>
+      <c r="I33">
+        <v>3.3007211945141203E-2</v>
+      </c>
+      <c r="J33">
+        <v>2.51857983768752E-2</v>
+      </c>
+      <c r="K33">
+        <v>1.7550066169147401E-2</v>
+      </c>
+      <c r="L33">
+        <v>2.72305327282489E-2</v>
+      </c>
+      <c r="M33">
+        <v>9.6189726556197397E-2</v>
+      </c>
+      <c r="N33">
+        <v>4.7527161588057198E-2</v>
+      </c>
+      <c r="O33">
+        <v>2.9017027734953099E-2</v>
+      </c>
+      <c r="P33">
+        <v>7.7023651845993205E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>